--- a/data/processed/_12_portfolio-135-to-citation.xlsx
+++ b/data/processed/_12_portfolio-135-to-citation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d78fae2ee862e741/Repositorios/ETech-Gov-Review/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d78fae2ee862e741/Repositorios/AI-Cop_SLR/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1A4511AAD370545387DB3511595ED876568C885B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FFC47D-AB4D-4D19-A4C0-540CA43152D0}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_1A4511AAD370545387DB3511595ED876568C885B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C996BC76-B41E-42B9-BEA7-26B5D32A7AD3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5794,11 +5794,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1722"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
